--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT2\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>wanneer</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>database opgezet</t>
+  </si>
+  <si>
+    <t>adviesrapport gemaakt/ verbeterd</t>
+  </si>
+  <si>
+    <t>erd gemaakt</t>
+  </si>
+  <si>
+    <t>plan van eisen in apart bestand gezet en in het nederlands</t>
+  </si>
+  <si>
+    <t>plan van eisen verbeterd</t>
+  </si>
+  <si>
+    <t>planning verbeterd</t>
   </si>
 </sst>
 </file>
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I23"/>
+  <dimension ref="C2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,6 +713,41 @@
         <v>17</v>
       </c>
     </row>
+    <row r="24" spans="3:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="3:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E25" s="12">
+        <v>42999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E27" s="12"/>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E28" s="12">
+        <v>43000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>wanneer</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>planning verbeterd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begonnen aan website maken </t>
+  </si>
+  <si>
+    <t>verder gewerkt aan website projects page halverwege</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +261,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -275,7 +282,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +320,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I29"/>
+  <dimension ref="C2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,6 +755,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="14">
+        <v>43003</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="14">
+        <v>43004</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>wanneer</t>
   </si>
@@ -100,13 +100,26 @@
   </si>
   <si>
     <t>verder gewerkt aan website projects page halverwege</t>
+  </si>
+  <si>
+    <t>laravel project aangemaak en alle oude files erin gezet</t>
+  </si>
+  <si>
+    <t>sales afdeling verder afgemaakt onder andere cutomers afdeling en projects afdeling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,20 +136,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF2F5496"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -147,6 +147,19 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2F5496"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,28 +253,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -576,199 +590,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I33"/>
+  <dimension ref="C2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>42983</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>42985</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>42986</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>42989</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>42990</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>42992</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="E20" s="11"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>42993</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="2"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>42997</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E24" s="12"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>42999</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E27" s="12"/>
-      <c r="G27" t="s">
+      <c r="E27" s="9"/>
+      <c r="G27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>43000</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>43003</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>43004</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="15">
+        <v>43006</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>wanneer</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -276,6 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -590,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I36"/>
+  <dimension ref="C2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,6 +803,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="15">
+        <v>43007</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>wanneer</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>sales afdeling verder afgemaakt onder andere cutomers afdeling en projects afdeling</t>
+  </si>
+  <si>
+    <t>week4</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -277,6 +280,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -591,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I37"/>
+  <dimension ref="C2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E33" s="15">
         <v>43004</v>
       </c>
@@ -790,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E35" s="15">
         <v>43006</v>
       </c>
@@ -798,16 +802,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E37" s="15">
         <v>43007</v>
       </c>
       <c r="G37" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="15">
+        <v>43010</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>26</v>
       </c>
     </row>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>wanneer</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>week4</t>
+  </si>
+  <si>
+    <t>header gefixed, admin panel frontend gemaakt</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I39"/>
+  <dimension ref="C2:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,6 +830,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="15">
+        <v>43011</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>wanneer</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>header gefixed, admin panel frontend gemaakt</t>
+  </si>
+  <si>
+    <t>admin panel verder gemaakt(front-end af)</t>
+  </si>
+  <si>
+    <t>finance back end</t>
+  </si>
+  <si>
+    <t>finance back end project info en klant en project inactief zetten</t>
+  </si>
+  <si>
+    <t>begonnen aan finance back end</t>
+  </si>
+  <si>
+    <t>begonnen aan finance front end/back end</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,8 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -598,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I40"/>
+  <dimension ref="C2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,19 +827,19 @@
       <c r="E37" s="15">
         <v>43007</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="15">
         <v>43010</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -834,8 +847,56 @@
       <c r="E40" s="15">
         <v>43011</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="15">
+        <v>43013</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="15">
+        <v>43014</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="15">
+        <v>43017</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="15">
+        <v>43018</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="15">
+        <v>43020</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="15">
+        <v>43021</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek_jarno_touw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>wanneer</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>begonnen aan finance front end/back end</t>
+  </si>
+  <si>
+    <t>finance afgemaakt in de vakantie</t>
+  </si>
+  <si>
+    <t>finance nog 1 functie toegevoegd(open facturen showen)</t>
+  </si>
+  <si>
+    <t>admin afgemaakt functie klanten actief zetten</t>
   </si>
 </sst>
 </file>
@@ -274,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -297,6 +306,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -611,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D2D7A-E702-4818-8407-FD2B76662186}">
-  <dimension ref="C2:I49"/>
+  <dimension ref="C2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +909,27 @@
         <v>31</v>
       </c>
     </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="15">
+        <v>43027</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="15">
+        <v>43031</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
